--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="3645" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13395" windowHeight="3645" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="TCID_1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TCID_9" sheetId="9" r:id="rId9"/>
     <sheet name="TCID_10" sheetId="10" r:id="rId10"/>
     <sheet name="TCID_11" sheetId="11" r:id="rId11"/>
-    <sheet name="TCID_12" sheetId="12" r:id="rId12"/>
+    <sheet name="TCID_12" sheetId="27" r:id="rId12"/>
     <sheet name="TCID_13" sheetId="26" r:id="rId13"/>
     <sheet name="TCID_14" sheetId="14" r:id="rId14"/>
     <sheet name="TCID_15" sheetId="15" r:id="rId15"/>
@@ -32,17 +32,20 @@
     <sheet name="TCID_23" sheetId="23" r:id="rId23"/>
     <sheet name="TCID_24" sheetId="24" r:id="rId24"/>
     <sheet name="TCID_25" sheetId="25" r:id="rId25"/>
+    <sheet name="TCID_26" sheetId="28" r:id="rId26"/>
+    <sheet name="TCID_27" sheetId="29" r:id="rId27"/>
+    <sheet name="TCID_28" sheetId="30" r:id="rId28"/>
+    <sheet name="TCID_29" sheetId="31" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCID_1!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="154">
   <si>
     <t>Step_1_URL_FIELD</t>
   </si>
@@ -356,24 +359,12 @@
     <t>Abrigo, Ivan</t>
   </si>
   <si>
-    <t>T3Test_PR_0</t>
-  </si>
-  <si>
     <t>537961</t>
   </si>
   <si>
     <t>Professional Services</t>
   </si>
   <si>
-    <t>306.8</t>
-  </si>
-  <si>
-    <t>306.81</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
     <t>802</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>538086</t>
   </si>
   <si>
-    <t>TestUID</t>
-  </si>
-  <si>
     <t>Step_9_Number_textbox_TEXTBOX</t>
   </si>
   <si>
@@ -480,16 +468,62 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>Test_2021B_Test</t>
+  </si>
+  <si>
+    <t>T3Test_PR_2021B_Test1</t>
+  </si>
+  <si>
+    <t>07/05/21</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>532937</t>
+  </si>
+  <si>
+    <t>535777</t>
+  </si>
+  <si>
+    <t>Level of Effort</t>
+  </si>
+  <si>
+    <t>537739</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>RecalculateRawCostAmt</t>
+  </si>
+  <si>
+    <t>600008</t>
+  </si>
+  <si>
+    <t>Recalculate Raw Cost Amount</t>
+  </si>
+  <si>
+    <t>Hold Invoice Once</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,7 +576,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -550,23 +584,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -588,25 +616,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,7 +953,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +992,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -979,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,23 +1037,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
@@ -1027,22 +1062,22 @@
       <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="27" t="str">
+      <c r="D2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="26" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
+        <v>07/08/21</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="27" t="str">
+        <v>112</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="26" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
+        <v>07/08/21</v>
       </c>
     </row>
   </sheetData>
@@ -1053,99 +1088,144 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" customFormat="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:21" s="20" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" customFormat="1">
-      <c r="A2" s="30" t="s">
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="20" customFormat="1">
+      <c r="A2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" customFormat="1"/>
-    <row r="4" spans="1:21" customFormat="1"/>
-    <row r="5" spans="1:21" customFormat="1"/>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -1160,107 +1240,102 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="50.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J2" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="27" t="str">
-        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="32">
         <v>10</v>
       </c>
-      <c r="L2" s="27" t="str">
-        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="32">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1284,127 +1359,127 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="F2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="N2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="29" t="s">
+      <c r="R2" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="S2" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1496,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1528,8 +1603,8 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
+      <c r="I2" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -1549,8 +1624,8 @@
       <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>27</v>
+      <c r="P2" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>99</v>
@@ -1576,7 +1651,7 @@
       <c r="X2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1586,6 +1661,7 @@
     <hyperlink ref="C2" r:id="rId2" display="Welcome@2021!"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1704,8 +1780,8 @@
       <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>105</v>
+      <c r="I2" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>15</v>
@@ -1756,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1772,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2331,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2543,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2595,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -2620,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
@@ -2795,8 +2871,8 @@
       <c r="W2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="25" t="s">
-        <v>113</v>
+      <c r="X2" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>44</v>
@@ -2839,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2983,8 +3059,8 @@
       <c r="H2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>105</v>
+      <c r="I2" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>15</v>
@@ -3004,8 +3080,8 @@
       <c r="O2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>105</v>
+      <c r="P2" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>29</v>
@@ -3068,7 +3144,7 @@
         <v>65</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3077,6 +3153,7 @@
     <hyperlink ref="C2" r:id="rId2" display="Welcome@2021!"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3084,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3325,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AL2" s="17" t="s">
         <v>69</v>
@@ -3334,7 +3411,7 @@
         <v>71</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AO2" s="17" t="s">
         <v>74</v>
@@ -3353,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3530,8 +3607,8 @@
       <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>105</v>
+      <c r="I2" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>15</v>
@@ -3551,8 +3628,8 @@
       <c r="O2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>105</v>
+      <c r="P2" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>29</v>
@@ -3575,8 +3652,8 @@
       <c r="W2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="25" t="s">
-        <v>105</v>
+      <c r="X2" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="Y2" s="20">
         <v>306</v>
@@ -3615,7 +3692,7 @@
         <v>65</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="18" t="s">
         <v>69</v>
@@ -3624,31 +3701,31 @@
         <v>71</v>
       </c>
       <c r="AN2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
-        <v>108</v>
+      <c r="AP2" s="24">
+        <v>800</v>
+      </c>
+      <c r="AQ2" s="24">
+        <v>801</v>
       </c>
       <c r="AR2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" s="24">
+        <v>901</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AS2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="AV2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3856,8 +3933,8 @@
       <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>105</v>
+      <c r="I2" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>15</v>
@@ -3941,7 +4018,7 @@
         <v>65</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="19" t="s">
         <v>69</v>
@@ -3950,7 +4027,7 @@
         <v>71</v>
       </c>
       <c r="AN2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO2" s="19" t="s">
         <v>74</v>
@@ -3962,30 +4039,30 @@
         <v>44</v>
       </c>
       <c r="AR2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS2" s="19" t="s">
         <v>80</v>
       </c>
       <c r="AT2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU2" s="19" t="s">
         <v>83</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AX2" s="19"/>
-      <c r="AY2" s="26" t="s">
-        <v>111</v>
+      <c r="AY2" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="AZ2" s="19" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
+        <v>07/08/21</v>
       </c>
       <c r="BA2" s="19" t="s">
         <v>57</v>
@@ -4006,7 +4083,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4219,8 +4296,8 @@
       <c r="O2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>27</v>
+      <c r="P2" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>29</v>
@@ -4335,6 +4412,609 @@
       </c>
       <c r="BB2" s="20" t="s">
         <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" display="Welcome@2021!"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="20" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="20" customFormat="1">
+      <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome@2021!"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome@2021!"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" display="Welcome@2021!"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23" s="20" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="20" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4422,7 +5102,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4583,15 +5263,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +5306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="21" t="s">
         <v>96</v>
       </c>
@@ -4637,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -4651,12 +5334,17 @@
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="J3" s="20"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4784,8 +5472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4868,8 +5556,8 @@
       <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
+      <c r="I2" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>15</v>
@@ -4889,8 +5577,8 @@
       <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>27</v>
+      <c r="P2" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>99</v>
@@ -4931,17 +5619,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4950,15 +5638,15 @@
       <c r="C2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="27" t="str">
+      <c r="D2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="26" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>07/01/21</v>
+        <v>07/08/21</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
